--- a/db/draft.xlsx
+++ b/db/draft.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben10pedrin/Documents/Code/laika/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben10pedrin/Documents/Code/laika/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB2A60B-0A36-C34A-BF89-AFF6AA61E34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A98DDB-14B6-0047-8768-1C95B987B3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{B3EF4E22-3678-094E-B4AF-F737223A1624}"/>
   </bookViews>
@@ -581,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC2E062-78DD-7B46-A3ED-8FF9E7B8558A}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="184" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="184" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
